--- a/dataset_metadata.xlsx
+++ b/dataset_metadata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="23">
   <si>
     <t xml:space="preserve">output_index</t>
   </si>
@@ -61,9 +61,6 @@
     <t xml:space="preserve">12_output</t>
   </si>
   <si>
-    <t xml:space="preserve">same as above, 12a_output, cluster resolution 0.5</t>
-  </si>
-  <si>
     <t xml:space="preserve">14_output</t>
   </si>
   <si>
@@ -77,6 +74,21 @@
   </si>
   <si>
     <t xml:space="preserve">/media/hieunguyen/GSHD_HN01/outdir/BrainMet_SeuratV5/integrate_BrainMet_datasets/integrated_v0.2/14_output/ribo_thres_42/integrated_BrainMet_dataset.moreClusterRes.output.s8.rds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15_output</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remove_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/media/hieunguyen/GSHD_HN01/outdir/BrainMet_SeuratV5/integrate_BrainMet_datasets/integrated_v0.2/15_output/ribo_thres_INTEGRATE_WITHOUT_RIBO_GENES/integrated_BrainMet_dataset.moreClusterRes.output.s8.rds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16_output</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/media/hieunguyen/GSHD_HN01/outdir/BrainMet_SeuratV5/integrate_BrainMet_datasets/integrated_v0.2/16_output/ribo_thres_REMOVE_FULLY_RIBO_GENES/integrated_BrainMet_dataset.moreClusterRes.output.s8.rds</t>
   </si>
 </sst>
 </file>
@@ -177,13 +189,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3:D20"/>
+      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.6"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -218,7 +233,7 @@
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -235,7 +250,7 @@
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -252,7 +267,7 @@
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -269,7 +284,7 @@
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -286,7 +301,7 @@
       <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -303,7 +318,7 @@
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -320,19 +335,17 @@
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="G8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>0.5</v>
@@ -340,16 +353,16 @@
       <c r="C9" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>0.1</v>
@@ -357,16 +370,16 @@
       <c r="C10" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>0.2</v>
@@ -374,16 +387,16 @@
       <c r="C11" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>0.25</v>
@@ -391,16 +404,16 @@
       <c r="C12" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>0.3</v>
@@ -408,16 +421,16 @@
       <c r="C13" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>0.4</v>
@@ -425,16 +438,16 @@
       <c r="C14" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>0.5</v>
@@ -442,16 +455,16 @@
       <c r="C15" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>0.1</v>
@@ -459,16 +472,16 @@
       <c r="C16" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>0.2</v>
@@ -476,16 +489,16 @@
       <c r="C17" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>0.25</v>
@@ -493,16 +506,16 @@
       <c r="C18" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>0.3</v>
@@ -510,16 +523,16 @@
       <c r="C19" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>0.4</v>
@@ -527,11 +540,215 @@
       <c r="C20" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
         <v>18</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
